--- a/ModelAutoBuild.xlsx
+++ b/ModelAutoBuild.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/mikova_microsoft_com/Documents/Power BI CAT/ModelAutoBuild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="8_{CFACD04C-7A0A-42D0-93DE-D5298EAD720C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42BE3941-3DAF-44B6-93B5-DFE65AB834FD}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="8_{CFACD04C-7A0A-42D0-93DE-D5298EAD720C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{584E7FFF-0484-4E5A-8337-64D0F72FEBB0}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BEC676D7-2196-4582-B754-27C40BA62468}"/>
   </bookViews>
@@ -666,12 +666,12 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1141,10 +1141,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{83F46CC6-737F-4A68-B104-A53140A4F1CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{83F46CC6-737F-4A68-B104-A53140A4F1CE}">
       <formula1>DS</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{35C83E32-5787-4DB0-AF75-11B08A2A2D65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{35C83E32-5787-4DB0-AF75-11B08A2A2D65}">
       <formula1>TT</formula1>
     </dataValidation>
   </dataValidations>
@@ -1159,7 +1159,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1193,7 +1193,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{29070D48-EE1C-43ED-9FA3-F88390F4675C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{29070D48-EE1C-43ED-9FA3-F88390F4675C}">
       <formula1>CFB</formula1>
     </dataValidation>
   </dataValidations>
@@ -1211,7 +1211,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1277,13 +1277,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E55" xr:uid="{04B5F0FF-7D2A-47DC-87FC-7751FC9C2FEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{04B5F0FF-7D2A-47DC-87FC-7751FC9C2FEC}">
       <formula1>DT</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H55" xr:uid="{04EE1468-C5AD-4684-9E3C-54EB45E68988}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{04EE1468-C5AD-4684-9E3C-54EB45E68988}">
       <formula1>FS</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C55" xr:uid="{28862CC7-1A61-4BBE-86B6-217DEDC27834}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{28862CC7-1A61-4BBE-86B6-217DEDC27834}">
       <formula1>OT</formula1>
     </dataValidation>
   </dataValidations>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1482,23 +1482,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="beaba498-6342-4421-a18c-7bfd16d38d53" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCC0D0C0DFF8C6449DE7873A14FBCB83" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa404479abba3feb074acc2e806565cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e548fd3-f7b4-490c-9d07-36be117e6ce5" xmlns:ns4="beaba498-6342-4421-a18c-7bfd16d38d53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25dd324ff6cedc5a2df3109d58df23e8" ns3:_="" ns4:_="">
     <xsd:import namespace="9e548fd3-f7b4-490c-9d07-36be117e6ce5"/>
@@ -1733,25 +1716,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="beaba498-6342-4421-a18c-7bfd16d38d53" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9805D712-353E-429A-8628-FA34CABB75D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="beaba498-6342-4421-a18c-7bfd16d38d53"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F812E1F2-546D-4113-A992-5C4A89A4B9AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1768,4 +1750,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9805D712-353E-429A-8628-FA34CABB75D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="beaba498-6342-4421-a18c-7bfd16d38d53"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>